--- a/Product_Backlog/Product_Backlog_v2.xlsx
+++ b/Product_Backlog/Product_Backlog_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leiaa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/jsbeesla_dundee_ac_uk/Documents/Year 3/Semester 2/AC31007 - Agile Software Engineering/AC31007-AC51003-Agile-Software-Engineering---Group-1/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122EB33F-D5D3-443E-9C4D-35645E580A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{122EB33F-D5D3-443E-9C4D-35645E580A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5513A65-30EC-4ED4-AEE1-DB9B38B80FDB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -205,6 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,19 +526,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDFF82C-87DE-4B72-AA5F-1D71E90422C9}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="135.1796875" customWidth="1"/>
-    <col min="2" max="3" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="135.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -558,8 +565,9 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -572,8 +580,9 @@
       <c r="D3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -586,8 +595,9 @@
       <c r="D4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -599,7 +609,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -609,9 +619,12 @@
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -624,8 +637,9 @@
       <c r="D7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -637,7 +651,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -650,8 +664,9 @@
       <c r="D9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -661,9 +676,12 @@
       <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -675,7 +693,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -687,7 +705,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -699,7 +717,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -711,7 +729,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -723,7 +741,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -735,7 +753,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -747,7 +765,7 @@
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -759,7 +777,7 @@
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C2:C18)</f>
         <v>48</v>
@@ -775,18 +793,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,18 +966,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1702138-3F48-4D73-9E77-0B81CA4F8B4A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1468BD9F-4FB3-4CBA-86F0-BF63DD44DBE9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1468BD9F-4FB3-4CBA-86F0-BF63DD44DBE9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1702138-3F48-4D73-9E77-0B81CA4F8B4A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Product_Backlog/Product_Backlog_v2.xlsx
+++ b/Product_Backlog/Product_Backlog_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/jsbeesla_dundee_ac_uk/Documents/Year 3/Semester 2/AC31007 - Agile Software Engineering/AC31007-AC51003-Agile-Software-Engineering---Group-1/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{122EB33F-D5D3-443E-9C4D-35645E580A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5513A65-30EC-4ED4-AEE1-DB9B38B80FDB}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{122EB33F-D5D3-443E-9C4D-35645E580A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8BFA8E-95AD-1246-9A3B-307976C437A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>User Story</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>As a user I would like access information from the open data sets through the web app so that it can help me be more sustainable</t>
+  </si>
+  <si>
+    <t>As a school user I would like the webapp to be easy to use and interesting to look at so I can learn about sustainability in my area.</t>
+  </si>
+  <si>
+    <t>As a resident in the Dundee area I would like to be able to suggest more sustainable Dundee examples so that the site can be expanded</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -212,6 +224,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,19 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDFF82C-87DE-4B72-AA5F-1D71E90422C9}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="135.140625" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="135.1640625" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -567,7 +581,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -582,7 +596,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -597,7 +611,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -607,9 +621,11 @@
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -624,168 +640,194 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>3</v>
       </c>
       <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>SUM(C2:C18)</f>
-        <v>48</v>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
-    <sortCondition descending="1" ref="B2:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+    <sortCondition descending="1" ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -793,21 +835,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100786EA816594F01499CFFC00C2C075B48" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4531d48bb182209442efa19cecda189c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8287c81-3df2-4323-80d5-6235b2ea6f07" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ad0db5e94dc36dde0b77b3efc52c815" ns2:_="">
     <xsd:import namespace="d8287c81-3df2-4323-80d5-6235b2ea6f07"/>
@@ -965,24 +992,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1468BD9F-4FB3-4CBA-86F0-BF63DD44DBE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1702138-3F48-4D73-9E77-0B81CA4F8B4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C694EF2-6B18-4685-8A29-0672142C83BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -998,4 +1023,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1702138-3F48-4D73-9E77-0B81CA4F8B4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d8287c81-3df2-4323-80d5-6235b2ea6f07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1468BD9F-4FB3-4CBA-86F0-BF63DD44DBE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Product_Backlog/Product_Backlog_v2.xlsx
+++ b/Product_Backlog/Product_Backlog_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dmail-my.sharepoint.com/personal/jsbeesla_dundee_ac_uk/Documents/Year 3/Semester 2/AC31007 - Agile Software Engineering/AC31007-AC51003-Agile-Software-Engineering---Group-1/Product_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{122EB33F-D5D3-443E-9C4D-35645E580A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8BFA8E-95AD-1246-9A3B-307976C437A1}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{122EB33F-D5D3-443E-9C4D-35645E580A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB953CB-FF42-A34B-BFC0-0D10610CA741}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E316B913-E407-4F43-9DFF-CC9694ED4CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>User Story</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>As a user I would like to create a personal list of items I am interested in so that I can print this out or save it to a list of places to visit</t>
-  </si>
-  <si>
-    <t>As a user I would like to be able to suggest more sustainable Dundee examples so that the site can be expanded</t>
   </si>
   <si>
     <t>As a user I would like to be able to select a 'tour' so that I can explore the sustainable options in Dundee</t>
@@ -109,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +122,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +200,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -225,7 +241,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDFF82C-87DE-4B72-AA5F-1D71E90422C9}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,6 +642,7 @@
       <c r="D5" s="8">
         <v>2</v>
       </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -636,13 +655,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -650,9 +669,10 @@
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -682,6 +702,7 @@
       <c r="D9" s="8">
         <v>2</v>
       </c>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -723,7 +744,10 @@
       <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -735,7 +759,9 @@
       <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -747,7 +773,9 @@
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -769,13 +797,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -783,11 +811,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -795,35 +823,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
